--- a/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
+++ b/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="152">
   <si>
     <t>土地坐落</t>
   </si>
@@ -263,6 +263,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中信金(上市）</t>
   </si>
   <si>
@@ -318,6 +327,9 @@
   </si>
   <si>
     <t>45，320</t>
+  </si>
+  <si>
+    <t>2012-04-16</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1771,13 +1783,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
@@ -1796,13 +1808,22 @@
       <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1819,13 +1840,22 @@
       <c r="G2" s="2">
         <v>142860</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1842,13 +1872,22 @@
       <c r="G3" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1865,13 +1904,22 @@
       <c r="G4" s="2">
         <v>9000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1888,13 +1936,22 @@
       <c r="G5" s="2">
         <v>81470</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1911,13 +1968,22 @@
       <c r="G6" s="2">
         <v>31470</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1934,13 +2000,22 @@
       <c r="G7" s="2">
         <v>110640</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1957,13 +2032,22 @@
       <c r="G8" s="2">
         <v>22180</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -1980,13 +2064,22 @@
       <c r="G9" s="2">
         <v>23160</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -2003,13 +2096,22 @@
       <c r="G10" s="2">
         <v>67270</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -2026,13 +2128,22 @@
       <c r="G11" s="2">
         <v>87380</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -2049,13 +2160,22 @@
       <c r="G12" s="2">
         <v>107470</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -2072,13 +2192,22 @@
       <c r="G13" s="2">
         <v>57790</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -2095,13 +2224,22 @@
       <c r="G14" s="2">
         <v>55460</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -2118,13 +2256,22 @@
       <c r="G15" s="2">
         <v>58750</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -2141,13 +2288,22 @@
       <c r="G16" s="2">
         <v>52490</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -2162,15 +2318,24 @@
         <v>69</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
@@ -2187,13 +2352,22 @@
       <c r="G18" s="2">
         <v>16430</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -2209,6 +2383,15 @@
       </c>
       <c r="G19" s="2">
         <v>10540</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1755</v>
       </c>
     </row>
   </sheetData>
@@ -2226,22 +2409,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>45</v>
@@ -2252,13 +2435,13 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2">
         <v>40000</v>
@@ -2278,13 +2461,13 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2">
         <v>20000</v>
@@ -2304,13 +2487,13 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E4" s="2">
         <v>12247.4</v>
@@ -2330,13 +2513,13 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2">
         <v>34541.9</v>
@@ -2356,13 +2539,13 @@
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E6" s="2">
         <v>238.25</v>
@@ -2382,13 +2565,13 @@
         <v>130</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E7" s="2">
         <v>492.59</v>
@@ -2408,13 +2591,13 @@
         <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E8" s="2">
         <v>1374.137</v>
@@ -2434,13 +2617,13 @@
         <v>132</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2">
         <v>471.33</v>
@@ -2460,13 +2643,13 @@
         <v>133</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2">
         <v>288.96</v>
@@ -2486,13 +2669,13 @@
         <v>134</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E11" s="2">
         <v>925207</v>
@@ -2512,13 +2695,13 @@
         <v>135</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E12" s="2">
         <v>300.098</v>
@@ -2538,13 +2721,13 @@
         <v>136</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2">
         <v>378.32</v>
@@ -2564,13 +2747,13 @@
         <v>137</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2">
         <v>778.839</v>
@@ -2590,13 +2773,13 @@
         <v>138</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2">
         <v>227.45</v>
@@ -2616,13 +2799,13 @@
         <v>139</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E16" s="2">
         <v>244.54</v>
@@ -2642,13 +2825,13 @@
         <v>140</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E17" s="2">
         <v>1657.64</v>
@@ -2668,13 +2851,13 @@
         <v>141</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E18" s="2">
         <v>23.241</v>
@@ -2694,13 +2877,13 @@
         <v>142</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2">
         <v>1503.856</v>
@@ -2720,13 +2903,13 @@
         <v>143</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E20" s="2">
         <v>24.553</v>
@@ -2746,13 +2929,13 @@
         <v>144</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E21" s="2">
         <v>38.231</v>
@@ -2772,13 +2955,13 @@
         <v>145</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E22" s="2">
         <v>453.022</v>
@@ -2798,13 +2981,13 @@
         <v>147</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E23" s="2">
         <v>512.072</v>
@@ -2834,16 +3017,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2851,7 +3034,7 @@
         <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2868,7 +3051,7 @@
         <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2895,13 +3078,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2909,10 +3092,10 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -2923,10 +3106,10 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -2937,10 +3120,10 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>

--- a/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
+++ b/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="154">
   <si>
     <t>土地坐落</t>
   </si>
@@ -263,6 +263,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -326,7 +329,10 @@
     <t>茂德(上櫃）</t>
   </si>
   <si>
-    <t>45，320</t>
+    <t>45320</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-16</t>
@@ -1783,13 +1789,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
@@ -1817,13 +1823,16 @@
       <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1841,21 +1850,24 @@
         <v>142860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2">
+        <v>104</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1873,21 +1885,24 @@
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2">
+        <v>104</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1905,21 +1920,24 @@
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="2">
+        <v>104</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1937,21 +1955,24 @@
         <v>81470</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="2">
+        <v>104</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1969,21 +1990,24 @@
         <v>31470</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="2">
+        <v>104</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -2001,21 +2025,24 @@
         <v>110640</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="2">
+        <v>104</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -2033,21 +2060,24 @@
         <v>22180</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="2">
+        <v>104</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -2065,21 +2095,24 @@
         <v>23160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="2">
+        <v>104</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -2097,21 +2130,24 @@
         <v>67270</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2">
+        <v>104</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -2129,21 +2165,24 @@
         <v>87380</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="2">
+        <v>104</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -2161,21 +2200,24 @@
         <v>107470</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="2">
+        <v>104</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -2193,21 +2235,24 @@
         <v>57790</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="2">
+        <v>104</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -2225,21 +2270,24 @@
         <v>55460</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="2">
+        <v>104</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -2257,21 +2305,24 @@
         <v>58750</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="2">
+        <v>104</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -2289,21 +2340,24 @@
         <v>52490</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="2">
+        <v>104</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -2318,24 +2372,27 @@
         <v>69</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="2">
+        <v>104</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
@@ -2353,21 +2410,24 @@
         <v>16430</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="2">
+        <v>104</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="2">
         <v>1755</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -2385,12 +2445,15 @@
         <v>10540</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="2">
+        <v>104</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="2">
         <v>1755</v>
       </c>
     </row>
@@ -2409,22 +2472,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>45</v>
@@ -2435,13 +2498,13 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2">
         <v>40000</v>
@@ -2461,13 +2524,13 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2">
         <v>20000</v>
@@ -2487,13 +2550,13 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2">
         <v>12247.4</v>
@@ -2513,13 +2576,13 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E5" s="2">
         <v>34541.9</v>
@@ -2539,13 +2602,13 @@
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2">
         <v>238.25</v>
@@ -2565,13 +2628,13 @@
         <v>130</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E7" s="2">
         <v>492.59</v>
@@ -2591,13 +2654,13 @@
         <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2">
         <v>1374.137</v>
@@ -2617,13 +2680,13 @@
         <v>132</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2">
         <v>471.33</v>
@@ -2643,13 +2706,13 @@
         <v>133</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2">
         <v>288.96</v>
@@ -2669,13 +2732,13 @@
         <v>134</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E11" s="2">
         <v>925207</v>
@@ -2695,13 +2758,13 @@
         <v>135</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E12" s="2">
         <v>300.098</v>
@@ -2721,13 +2784,13 @@
         <v>136</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E13" s="2">
         <v>378.32</v>
@@ -2747,13 +2810,13 @@
         <v>137</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2">
         <v>778.839</v>
@@ -2773,13 +2836,13 @@
         <v>138</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E15" s="2">
         <v>227.45</v>
@@ -2799,13 +2862,13 @@
         <v>139</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E16" s="2">
         <v>244.54</v>
@@ -2825,13 +2888,13 @@
         <v>140</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E17" s="2">
         <v>1657.64</v>
@@ -2851,13 +2914,13 @@
         <v>141</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E18" s="2">
         <v>23.241</v>
@@ -2877,13 +2940,13 @@
         <v>142</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E19" s="2">
         <v>1503.856</v>
@@ -2903,13 +2966,13 @@
         <v>143</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E20" s="2">
         <v>24.553</v>
@@ -2929,13 +2992,13 @@
         <v>144</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E21" s="2">
         <v>38.231</v>
@@ -2955,13 +3018,13 @@
         <v>145</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E22" s="2">
         <v>453.022</v>
@@ -2981,13 +3044,13 @@
         <v>147</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E23" s="2">
         <v>512.072</v>
@@ -3017,16 +3080,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3034,7 +3097,7 @@
         <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3051,7 +3114,7 @@
         <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -3078,13 +3141,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3092,10 +3155,10 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -3106,10 +3169,10 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -3120,10 +3183,10 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>

--- a/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
+++ b/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="159">
   <si>
     <t>土地坐落</t>
   </si>
@@ -266,6 +266,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -275,6 +278,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中信金(上市）</t>
   </si>
   <si>
@@ -335,7 +344,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-16</t>
+  </si>
+  <si>
+    <t>tmp8b7f1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1789,13 +1804,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
@@ -1826,13 +1841,22 @@
       <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1850,24 +1874,33 @@
         <v>142860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2">
+        <v>108</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1885,24 +1918,33 @@
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2">
+        <v>108</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1920,24 +1962,33 @@
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="2">
+        <v>108</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1955,24 +2006,33 @@
         <v>81470</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="2">
+        <v>108</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N5" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1990,24 +2050,33 @@
         <v>31470</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -2025,24 +2094,33 @@
         <v>110640</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="2">
+        <v>108</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -2060,24 +2138,33 @@
         <v>22180</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="2">
+        <v>108</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -2095,24 +2182,33 @@
         <v>23160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="2">
+        <v>108</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -2130,24 +2226,33 @@
         <v>67270</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="2">
+        <v>108</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -2165,24 +2270,33 @@
         <v>87380</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="2">
+        <v>108</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -2200,24 +2314,33 @@
         <v>107470</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="2">
+        <v>108</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -2235,24 +2358,33 @@
         <v>57790</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="2">
+        <v>108</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -2270,24 +2402,33 @@
         <v>55460</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="2">
+        <v>108</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -2305,24 +2446,33 @@
         <v>58750</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="2">
+        <v>108</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -2340,24 +2490,33 @@
         <v>52490</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="2">
+        <v>108</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -2372,27 +2531,36 @@
         <v>69</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="2">
+        <v>108</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
@@ -2410,24 +2578,33 @@
         <v>16430</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="2">
+        <v>108</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="2">
         <v>1755</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -2445,16 +2622,25 @@
         <v>10540</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="2">
+        <v>108</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="2">
         <v>1755</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" s="2">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2472,22 +2658,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>45</v>
@@ -2498,13 +2684,13 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2">
         <v>40000</v>
@@ -2524,13 +2710,13 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E3" s="2">
         <v>20000</v>
@@ -2550,13 +2736,13 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E4" s="2">
         <v>12247.4</v>
@@ -2576,13 +2762,13 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2">
         <v>34541.9</v>
@@ -2602,13 +2788,13 @@
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2">
         <v>238.25</v>
@@ -2628,13 +2814,13 @@
         <v>130</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2">
         <v>492.59</v>
@@ -2654,13 +2840,13 @@
         <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E8" s="2">
         <v>1374.137</v>
@@ -2680,13 +2866,13 @@
         <v>132</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2">
         <v>471.33</v>
@@ -2706,13 +2892,13 @@
         <v>133</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2">
         <v>288.96</v>
@@ -2732,13 +2918,13 @@
         <v>134</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E11" s="2">
         <v>925207</v>
@@ -2758,13 +2944,13 @@
         <v>135</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E12" s="2">
         <v>300.098</v>
@@ -2784,13 +2970,13 @@
         <v>136</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2">
         <v>378.32</v>
@@ -2810,13 +2996,13 @@
         <v>137</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2">
         <v>778.839</v>
@@ -2836,13 +3022,13 @@
         <v>138</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2">
         <v>227.45</v>
@@ -2862,13 +3048,13 @@
         <v>139</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E16" s="2">
         <v>244.54</v>
@@ -2888,13 +3074,13 @@
         <v>140</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E17" s="2">
         <v>1657.64</v>
@@ -2914,13 +3100,13 @@
         <v>141</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E18" s="2">
         <v>23.241</v>
@@ -2940,13 +3126,13 @@
         <v>142</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E19" s="2">
         <v>1503.856</v>
@@ -2966,13 +3152,13 @@
         <v>143</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E20" s="2">
         <v>24.553</v>
@@ -2992,13 +3178,13 @@
         <v>144</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E21" s="2">
         <v>38.231</v>
@@ -3018,13 +3204,13 @@
         <v>145</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E22" s="2">
         <v>453.022</v>
@@ -3044,13 +3230,13 @@
         <v>147</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E23" s="2">
         <v>512.072</v>
@@ -3080,16 +3266,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3097,7 +3283,7 @@
         <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3114,7 +3300,7 @@
         <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -3141,13 +3327,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3155,10 +3341,10 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -3169,10 +3355,10 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -3183,10 +3369,10 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>

--- a/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
+++ b/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
@@ -21,9 +21,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="159">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="160">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段07020000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段07020001地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段一小段00040002地號</t>
+  </si>
+  <si>
+    <t>10000分之227</t>
+  </si>
+  <si>
+    <t>10000分之141</t>
+  </si>
+  <si>
+    <t>曾巨威</t>
+  </si>
+  <si>
+    <t>傅寄萍</t>
+  </si>
+  <si>
+    <t>73年07月19日</t>
+  </si>
+  <si>
+    <t>81年12月12日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超禍Ti■年)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-16</t>
+  </si>
+  <si>
+    <t>tmp8b7f1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,76 +134,37 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區通化段一小段 0702-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 0702-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段一小段 0004-0002 地號</t>
-  </si>
-  <si>
-    <t>10000分之 227</t>
-  </si>
-  <si>
-    <t>10000分之 141</t>
-  </si>
-  <si>
-    <t>曾巨威</t>
-  </si>
-  <si>
-    <t>傅寄萍</t>
-  </si>
-  <si>
-    <t>73年07月 19日</t>
-  </si>
-  <si>
-    <t>81年12月 12日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超禍Ti■年)</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 01602-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 01643-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段一小段 02793-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段一小段 02869-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段一小段 02864-000 建號</t>
+    <t>臺北市大安區通化段一小段01602000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段01643000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段一小段02793000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段一小段02869000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段一小段02864000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>10000分之 220</t>
-  </si>
-  <si>
-    <t>10000分之 156</t>
+    <t>10000分之220</t>
+  </si>
+  <si>
+    <t>10000分之156</t>
   </si>
   <si>
     <t>85分之1</t>
   </si>
   <si>
-    <t>81年12月 24日</t>
-  </si>
-  <si>
-    <t>81年12月 29日</t>
+    <t>81年12月24日</t>
+  </si>
+  <si>
+    <t>81年12月29日</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -128,22 +179,16 @@
     <t>豐田Camry</t>
   </si>
   <si>
-    <t>型 式</t>
+    <t>型式</t>
   </si>
   <si>
     <t>製造廠名稱</t>
   </si>
   <si>
-    <t>國籍標示 及編號</t>
-  </si>
-  <si>
-    <t>92年07月 28日</t>
-  </si>
-  <si>
-    <t>登記（取 得）時間</t>
-  </si>
-  <si>
-    <t>登記（取 得）原因</t>
+    <t>國籍標示及編號</t>
+  </si>
+  <si>
+    <t>92年07月28日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -164,7 +209,7 @@
     <t>臺灣銀行木柵分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行木柵分 行</t>
+    <t>台北富邦商業銀行木柵分行</t>
   </si>
   <si>
     <t>台北富邦商業銀行</t>
@@ -173,13 +218,13 @@
     <t>兆豐國際商業銀行營業部</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行金控總 部分行</t>
+    <t>兆豐國際商業銀行金控總部分行</t>
   </si>
   <si>
     <t>臺灣土地銀行文山分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司三 張犁分行</t>
+    <t>中華郵政股份有限公司三張犁分行</t>
   </si>
   <si>
     <t>玉山商業銀行城東分行</t>
@@ -188,16 +233,16 @@
     <t>玉山商業銀行嘉義分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行中山分 行</t>
+    <t>中國信託商業銀行中山分行</t>
   </si>
   <si>
     <t>花蓮第二信用合作社</t>
   </si>
   <si>
-    <t>中國信託商業銀行城中分 行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行大安分 行</t>
+    <t>中國信託商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行大安分行</t>
   </si>
   <si>
     <t>玉山商業銀行信義分行</t>
@@ -242,13 +287,7 @@
     <t>澳幣</t>
   </si>
   <si>
-    <t>6，190,238</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>6190238</t>
   </si>
   <si>
     <t>quantity</t>
@@ -263,27 +302,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中信金(上市）</t>
   </si>
   <si>
@@ -344,15 +362,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-16</t>
-  </si>
-  <si>
-    <t>tmp8b7f1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -377,13 +386,13 @@
     <t>保德信第一基金</t>
   </si>
   <si>
-    <t>德盛安聯中國策 略增長基金</t>
+    <t>德盛安聯中國策略增長基金</t>
   </si>
   <si>
     <t>富達韓國</t>
   </si>
   <si>
-    <t>坦伯頓開發中國 家</t>
+    <t>坦伯頓開發中國家</t>
   </si>
   <si>
     <t>坦伯頓世界基金</t>
@@ -392,19 +401,19 @@
     <t>貝萊德世界能源</t>
   </si>
   <si>
-    <t>富達歐洲-歐元</t>
+    <t>富達歐洲歐元</t>
   </si>
   <si>
     <t>坦柏頓全球債券</t>
   </si>
   <si>
-    <t>坦柏頓全球東歐 基金</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業 基金</t>
-  </si>
-  <si>
-    <t>GF太平洋科技 基金</t>
+    <t>坦柏頓全球東歐基金</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業基金</t>
+  </si>
+  <si>
+    <t>GF太平洋科技基金</t>
   </si>
   <si>
     <t>貝萊德世界礦業</t>
@@ -413,19 +422,19 @@
     <t>富達東協</t>
   </si>
   <si>
-    <t>富達亞洲高收益 基金(配現）</t>
+    <t>富達亞洲高收益基金(配現）</t>
   </si>
   <si>
     <t>霸菱東歐</t>
   </si>
   <si>
-    <t>富蘭克林坦伯頓 全球投資糸列-全球</t>
-  </si>
-  <si>
-    <t>法巴L1全球原 物料股票基金</t>
-  </si>
-  <si>
-    <t>天達環球能源基 金</t>
+    <t>富蘭克林坦伯頓全球投資糸列全球</t>
+  </si>
+  <si>
+    <t>法巴L1全球原物料股票基金</t>
+  </si>
+  <si>
+    <t>天達環球能源基金</t>
   </si>
   <si>
     <t>世界基金</t>
@@ -437,10 +446,7 @@
     <t>慶豐商業銀行</t>
   </si>
   <si>
-    <t>台北富邦商業 銀行</t>
-  </si>
-  <si>
-    <t>保德信投信公 司</t>
+    <t>保德信投信公司</t>
   </si>
   <si>
     <t>第一商業銀行</t>
@@ -449,10 +455,7 @@
     <t>玉山商業銀行</t>
   </si>
   <si>
-    <t>中國信託商業 銀行</t>
-  </si>
-  <si>
-    <t>中國信託商業 銀行 •</t>
+    <t>中國信託商業銀行</t>
   </si>
   <si>
     <t>安泰商業銀行</t>
@@ -461,16 +464,16 @@
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
   </si>
   <si>
-    <t>美林7年澳幣恆牛指數到期 最低保障帳總報酬連動債券</t>
-  </si>
-  <si>
-    <t>USB5年臺幣7檔亞洲REITs 類股連動債券</t>
+    <t>美林7年澳幣恆牛指數到期最低保障帳總報酬連動債券</t>
+  </si>
+  <si>
+    <t>USB5年臺幣7檔亞洲REITs類股連動債券</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -856,13 +859,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,83 +887,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>530</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>3250</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
         <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -978,25 +1065,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1004,25 +1091,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>117.86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1030,25 +1117,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>1141.68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1056,25 +1143,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
         <v>131.78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1082,25 +1169,25 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
         <v>2026.24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1108,25 +1195,25 @@
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>2826.55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1144,22 +1231,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1167,22 +1254,22 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1190,22 +1277,22 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1223,22 +1310,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1246,16 +1333,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1267,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1288,16 +1375,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1309,16 +1396,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1330,20 +1417,20 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1351,16 +1438,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1372,16 +1459,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1393,16 +1480,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1414,16 +1501,16 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1435,16 +1522,16 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1456,16 +1543,16 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1477,16 +1564,16 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1498,16 +1585,16 @@
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1519,16 +1606,16 @@
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1540,16 +1627,16 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1561,16 +1648,16 @@
         <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2">
         <v>39943.7</v>
@@ -1584,16 +1671,16 @@
         <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1605,16 +1692,16 @@
         <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1626,16 +1713,16 @@
         <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2">
         <v>21938.69</v>
@@ -1649,16 +1736,16 @@
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2">
         <v>22101.49</v>
@@ -1672,16 +1759,16 @@
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2">
         <v>28058.95</v>
@@ -1695,16 +1782,16 @@
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1716,16 +1803,16 @@
         <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -1737,16 +1824,16 @@
         <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1758,16 +1845,16 @@
         <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2">
         <v>2379.21</v>
@@ -1781,16 +1868,16 @@
         <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -1812,43 +1899,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1856,10 +1943,10 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>14286</v>
@@ -1868,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2">
         <v>142860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L2" s="2">
         <v>1755</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2">
         <v>78</v>
@@ -1900,10 +1987,10 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>20</v>
@@ -1912,28 +1999,28 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2">
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>1755</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2">
         <v>79</v>
@@ -1944,10 +2031,10 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>900000</v>
@@ -1956,28 +2043,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2">
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L4" s="2">
         <v>1755</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2">
         <v>80</v>
@@ -1988,10 +2075,10 @@
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>8147</v>
@@ -2000,28 +2087,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2">
         <v>81470</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L5" s="2">
         <v>1755</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N5" s="2">
         <v>81</v>
@@ -2032,10 +2119,10 @@
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>3147</v>
@@ -2044,28 +2131,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2">
         <v>31470</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L6" s="2">
         <v>1755</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N6" s="2">
         <v>82</v>
@@ -2076,10 +2163,10 @@
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>11064</v>
@@ -2088,28 +2175,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G7" s="2">
         <v>110640</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L7" s="2">
         <v>1755</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N7" s="2">
         <v>83</v>
@@ -2120,10 +2207,10 @@
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>2218</v>
@@ -2132,28 +2219,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G8" s="2">
         <v>22180</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L8" s="2">
         <v>1755</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N8" s="2">
         <v>84</v>
@@ -2164,10 +2251,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
         <v>2316</v>
@@ -2176,28 +2263,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2">
         <v>23160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L9" s="2">
         <v>1755</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N9" s="2">
         <v>85</v>
@@ -2208,10 +2295,10 @@
         <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>6727</v>
@@ -2220,28 +2307,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G10" s="2">
         <v>67270</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L10" s="2">
         <v>1755</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N10" s="2">
         <v>86</v>
@@ -2252,10 +2339,10 @@
         <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>8738</v>
@@ -2264,28 +2351,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G11" s="2">
         <v>87380</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L11" s="2">
         <v>1755</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N11" s="2">
         <v>87</v>
@@ -2296,10 +2383,10 @@
         <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
         <v>10747</v>
@@ -2308,28 +2395,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G12" s="2">
         <v>107470</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L12" s="2">
         <v>1755</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N12" s="2">
         <v>88</v>
@@ -2340,10 +2427,10 @@
         <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
         <v>5779</v>
@@ -2352,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G13" s="2">
         <v>57790</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L13" s="2">
         <v>1755</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N13" s="2">
         <v>89</v>
@@ -2384,10 +2471,10 @@
         <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
         <v>5546</v>
@@ -2396,28 +2483,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G14" s="2">
         <v>55460</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L14" s="2">
         <v>1755</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N14" s="2">
         <v>90</v>
@@ -2428,10 +2515,10 @@
         <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2">
         <v>5875</v>
@@ -2440,28 +2527,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G15" s="2">
         <v>58750</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L15" s="2">
         <v>1755</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N15" s="2">
         <v>91</v>
@@ -2472,10 +2559,10 @@
         <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
         <v>5249</v>
@@ -2484,28 +2571,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2">
         <v>52490</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L16" s="2">
         <v>1755</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N16" s="2">
         <v>92</v>
@@ -2516,10 +2603,10 @@
         <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2">
         <v>4532</v>
@@ -2528,28 +2615,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L17" s="2">
         <v>1755</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N17" s="2">
         <v>93</v>
@@ -2560,10 +2647,10 @@
         <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>1643</v>
@@ -2572,28 +2659,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G18" s="2">
         <v>16430</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L18" s="2">
         <v>1755</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N18" s="2">
         <v>94</v>
@@ -2604,10 +2691,10 @@
         <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
         <v>1054</v>
@@ -2616,28 +2703,28 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G19" s="2">
         <v>10540</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L19" s="2">
         <v>1755</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N19" s="2">
         <v>95</v>
@@ -2658,25 +2745,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2684,13 +2771,13 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2">
         <v>40000</v>
@@ -2699,7 +2786,7 @@
         <v>6.67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2">
         <v>266800</v>
@@ -2710,13 +2797,13 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2">
         <v>20000</v>
@@ -2725,7 +2812,7 @@
         <v>8.32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2">
         <v>166400</v>
@@ -2736,13 +2823,13 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E4" s="2">
         <v>12247.4</v>
@@ -2751,7 +2838,7 @@
         <v>16.21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2">
         <v>198530</v>
@@ -2762,13 +2849,13 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E5" s="2">
         <v>34541.9</v>
@@ -2777,7 +2864,7 @@
         <v>10.36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2">
         <v>357854</v>
@@ -2788,13 +2875,13 @@
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2">
         <v>238.25</v>
@@ -2803,7 +2890,7 @@
         <v>20.45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H6" s="2">
         <v>143398</v>
@@ -2814,13 +2901,13 @@
         <v>130</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E7" s="2">
         <v>492.59</v>
@@ -2829,7 +2916,7 @@
         <v>23.57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2">
         <v>341715</v>
@@ -2840,13 +2927,13 @@
         <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E8" s="2">
         <v>1374.137</v>
@@ -2855,7 +2942,7 @@
         <v>15.41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H8" s="2">
         <v>623235</v>
@@ -2866,13 +2953,13 @@
         <v>132</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E9" s="2">
         <v>471.33</v>
@@ -2881,7 +2968,7 @@
         <v>23.69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2">
         <v>328632</v>
@@ -2892,13 +2979,13 @@
         <v>133</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E10" s="2">
         <v>288.96</v>
@@ -2907,7 +2994,7 @@
         <v>9.742</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H10" s="2">
         <v>110383</v>
@@ -2918,13 +3005,13 @@
         <v>134</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E11" s="2">
         <v>925207</v>
@@ -2933,7 +3020,7 @@
         <v>15.06</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H11" s="2">
         <v>546364</v>
@@ -2944,13 +3031,13 @@
         <v>135</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E12" s="2">
         <v>300.098</v>
@@ -2959,7 +3046,7 @@
         <v>22.53</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H12" s="2">
         <v>265120</v>
@@ -2970,13 +3057,13 @@
         <v>136</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E13" s="2">
         <v>378.32</v>
@@ -2985,7 +3072,7 @@
         <v>65.16</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H13" s="2">
         <v>725242</v>
@@ -2996,13 +3083,13 @@
         <v>137</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E14" s="2">
         <v>778.839</v>
@@ -3011,7 +3098,7 @@
         <v>35.77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H14" s="2">
         <v>819614</v>
@@ -3022,13 +3109,13 @@
         <v>138</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E15" s="2">
         <v>227.45</v>
@@ -3037,7 +3124,7 @@
         <v>65.16</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H15" s="2">
         <v>435815</v>
@@ -3048,13 +3135,13 @@
         <v>139</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E16" s="2">
         <v>244.54</v>
@@ -3063,7 +3150,7 @@
         <v>30.77</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H16" s="2">
         <v>221264</v>
@@ -3074,13 +3161,13 @@
         <v>140</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E17" s="2">
         <v>1657.64</v>
@@ -3089,7 +3176,7 @@
         <v>8.296</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H17" s="2">
         <v>404384</v>
@@ -3100,13 +3187,13 @@
         <v>141</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E18" s="2">
         <v>23.241</v>
@@ -3115,7 +3202,7 @@
         <v>99.32</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H18" s="2">
         <v>67877</v>
@@ -3126,13 +3213,13 @@
         <v>142</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E19" s="2">
         <v>1503.856</v>
@@ -3141,7 +3228,7 @@
         <v>20.15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H19" s="2">
         <v>891081</v>
@@ -3152,13 +3239,13 @@
         <v>143</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E20" s="2">
         <v>24.553</v>
@@ -3167,7 +3254,7 @@
         <v>109.63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H20" s="2">
         <v>79153</v>
@@ -3178,13 +3265,13 @@
         <v>144</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E21" s="2">
         <v>38.231</v>
@@ -3193,7 +3280,7 @@
         <v>295.96</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H21" s="2">
         <v>332724</v>
@@ -3204,13 +3291,13 @@
         <v>145</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E22" s="2">
         <v>453.022</v>
@@ -3219,7 +3306,7 @@
         <v>15.56</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H22" s="2">
         <v>207452</v>
@@ -3230,13 +3317,13 @@
         <v>147</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E23" s="2">
         <v>512.072</v>
@@ -3245,7 +3332,7 @@
         <v>17.68</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H23" s="2">
         <v>266443</v>
@@ -3266,16 +3353,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3283,13 +3370,13 @@
         <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>772050</v>
@@ -3300,13 +3387,13 @@
         <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>153090</v>
@@ -3327,13 +3414,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3341,13 +3428,13 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3355,13 +3442,13 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3369,13 +3456,13 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
+++ b/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="136">
   <si>
     <t>name</t>
   </si>
@@ -65,7 +65,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區通化段一小段07020000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市大安區通化段一小段07020001地號</t>
@@ -95,12 +98,12 @@
     <t>買賣</t>
   </si>
   <si>
+    <t>(超禍Ti■年)</t>
+  </si>
+  <si>
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>(超禍Ti■年)</t>
-  </si>
-  <si>
     <t>land</t>
   </si>
   <si>
@@ -113,16 +116,55 @@
     <t>tmp8b7f1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+    <t>臺北市大安區通化段一小段01602000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段01643000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段一小段02793000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段一小段02869000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段一小段02864000建號</t>
+  </si>
+  <si>
+    <t>10000分之220</t>
+  </si>
+  <si>
+    <t>10000分之156</t>
+  </si>
+  <si>
+    <t>85分之1</t>
+  </si>
+  <si>
+    <t>81年12月24日</t>
+  </si>
+  <si>
+    <t>81年12月29日</t>
+  </si>
+  <si>
+    <t>豐田Camry</t>
+  </si>
+  <si>
+    <t>92年07月28日</t>
+  </si>
+  <si>
+    <t>型式</t>
+  </si>
+  <si>
+    <t>製造廠名稱</t>
+  </si>
+  <si>
+    <t>國籍標示及編號</t>
+  </si>
+  <si>
+    <t>所有人</t>
   </si>
   <si>
     <t>登記（取得）時間</t>
@@ -131,84 +173,15 @@
     <t>登記（取得）原因</t>
   </si>
   <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段01602000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段01643000建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段一小段02793000建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段一小段02869000建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段一小段02864000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之220</t>
-  </si>
-  <si>
-    <t>10000分之156</t>
-  </si>
-  <si>
-    <t>85分之1</t>
-  </si>
-  <si>
-    <t>81年12月24日</t>
-  </si>
-  <si>
-    <t>81年12月29日</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>豐田Camry</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
-    <t>92年07月28日</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行木柵分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行木柵分行</t>
   </si>
   <si>
@@ -260,9 +233,6 @@
     <t>安泰商業銀行信義分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
@@ -275,9 +245,6 @@
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -299,12 +266,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>中信金(上市）</t>
-  </si>
-  <si>
     <t>花蓮二信</t>
   </si>
   <si>
@@ -362,24 +323,12 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>臺壽保阿波羅</t>
   </si>
   <si>
+    <t>慶豐商業銀行</t>
+  </si>
+  <si>
     <t>富邦精銳中小</t>
   </si>
   <si>
@@ -443,9 +392,6 @@
     <t>全球基金</t>
   </si>
   <si>
-    <t>慶豐商業銀行</t>
-  </si>
-  <si>
     <t>保德信投信公司</t>
   </si>
   <si>
@@ -461,40 +407,22 @@
     <t>安泰商業銀行</t>
   </si>
   <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>美林7年澳幣恆牛指數到期最低保障帳總報酬連動債券</t>
   </si>
   <si>
     <t>USB5年臺幣7檔亞洲REITs類股連動債券</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>中華郵政</t>
   </si>
   <si>
+    <t>六六金順</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
     <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>六六金順</t>
   </si>
   <si>
     <t>鑫添財萬能終身險</t>
@@ -859,13 +787,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,146 +836,117 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>530</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>1755</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0227</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.0454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3250</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="2">
         <v>1755</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3250</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1755</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="2">
-        <v>15</v>
+      <c r="P3" s="2">
+        <v>0.0141</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>45.825</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +956,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1065,155 +964,129 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>117.86</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1141.68</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2">
-        <v>117.86</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2">
-        <v>1141.68</v>
+        <v>131.78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
-        <v>131.78</v>
+        <v>2026.24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2">
-        <v>2026.24</v>
+        <v>2826.55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2826.55</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1096,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1231,68 +1104,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1998</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1998</v>
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1310,577 +1160,554 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>3271631</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>3271631</v>
+        <v>13146</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>13146</v>
+        <v>877</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>877</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>6700</v>
+      <c r="G5" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>88</v>
+      <c r="G6" s="2">
+        <v>3215548</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>3215548</v>
+        <v>4615025</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>4615025</v>
+        <v>586687</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>586687</v>
+        <v>222923</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>222923</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>4923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>213061</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>213061</v>
+        <v>643</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>643</v>
+        <v>1943517</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>1943517</v>
+        <v>2820784</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F16" s="2">
+        <v>39943.7</v>
+      </c>
       <c r="G16" s="2">
-        <v>2820784</v>
+        <v>1177216</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="2">
-        <v>39943.7</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>1177216</v>
+        <v>1979895</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>1979895</v>
+        <v>678881</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F19" s="2">
+        <v>21938.69</v>
+      </c>
       <c r="G19" s="2">
-        <v>678881</v>
+        <v>645436</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2">
-        <v>21938.69</v>
+        <v>22101.49</v>
       </c>
       <c r="G20" s="2">
-        <v>645436</v>
+        <v>864577</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
+        <v>67</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2">
-        <v>22101.49</v>
+        <v>28058.95</v>
       </c>
       <c r="G21" s="2">
-        <v>864577</v>
+        <v>859377</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
+        <v>68</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="2">
-        <v>28058.95</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>859377</v>
+        <v>5173835</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
+        <v>69</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>5173835</v>
+        <v>5024333</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>5024333</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
+        <v>71</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2379.21</v>
+      </c>
       <c r="G25" s="2">
-        <v>3600000</v>
+        <v>93294</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2379.21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2">
-        <v>93294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>72</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
         <v>65015</v>
       </c>
     </row>
@@ -1891,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1905,16 +1732,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1940,793 +1767,749 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>14286</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2">
-        <v>142860</v>
+        <v>2000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>1755</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>20</v>
+        <v>900000</v>
       </c>
       <c r="E3" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2">
-        <v>2000</v>
+        <v>9000000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2">
         <v>1755</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
-        <v>900000</v>
+        <v>8147</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2">
-        <v>9000000</v>
+        <v>81470</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2">
         <v>1755</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
-        <v>8147</v>
+        <v>3147</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2">
-        <v>81470</v>
+        <v>31470</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2">
         <v>1755</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
-        <v>3147</v>
+        <v>11064</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2">
-        <v>31470</v>
+        <v>110640</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2">
         <v>1755</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
-        <v>11064</v>
+        <v>2218</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2">
-        <v>110640</v>
+        <v>22180</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7" s="2">
         <v>1755</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
-        <v>2218</v>
+        <v>2316</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G8" s="2">
-        <v>22180</v>
+        <v>23160</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" s="2">
         <v>1755</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
-        <v>2316</v>
+        <v>6727</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2">
-        <v>23160</v>
+        <v>67270</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L9" s="2">
         <v>1755</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>6727</v>
+        <v>8738</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2">
-        <v>67270</v>
+        <v>87380</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L10" s="2">
         <v>1755</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N10" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
-        <v>8738</v>
+        <v>10747</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2">
-        <v>87380</v>
+        <v>107470</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L11" s="2">
         <v>1755</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N11" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
-        <v>10747</v>
+        <v>5779</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2">
-        <v>107470</v>
+        <v>57790</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L12" s="2">
         <v>1755</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N12" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2">
-        <v>5779</v>
+        <v>5546</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2">
-        <v>57790</v>
+        <v>55460</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L13" s="2">
         <v>1755</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N13" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
-        <v>5546</v>
+        <v>5875</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G14" s="2">
-        <v>55460</v>
+        <v>58750</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="2">
         <v>1755</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N14" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2">
-        <v>5875</v>
+        <v>5249</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G15" s="2">
-        <v>58750</v>
+        <v>52490</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L15" s="2">
         <v>1755</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N15" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2">
-        <v>5249</v>
+        <v>4532</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="2">
-        <v>52490</v>
+        <v>52</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L16" s="2">
         <v>1755</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N16" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2">
-        <v>4532</v>
+        <v>1643</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>111</v>
+        <v>52</v>
+      </c>
+      <c r="G17" s="2">
+        <v>16430</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L17" s="2">
         <v>1755</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N17" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2">
-        <v>1643</v>
+        <v>1054</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G18" s="2">
-        <v>16430</v>
+        <v>10540</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18" s="2">
         <v>1755</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N18" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="1">
-        <v>95</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1054</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="2">
-        <v>10540</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1755</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="2">
         <v>95</v>
       </c>
     </row>
@@ -2737,7 +2520,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2745,596 +2528,570 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
+      </c>
+      <c r="E1" s="1">
+        <v>40000</v>
+      </c>
+      <c r="F1" s="1">
+        <v>6.67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="H1" s="1">
+        <v>266800</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="F2" s="2">
-        <v>6.67</v>
+        <v>8.32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2">
-        <v>266800</v>
+        <v>166400</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2">
-        <v>20000</v>
+        <v>12247.4</v>
       </c>
       <c r="F3" s="2">
-        <v>8.32</v>
+        <v>16.21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2">
-        <v>166400</v>
+        <v>198530</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2">
-        <v>12247.4</v>
+        <v>34541.9</v>
       </c>
       <c r="F4" s="2">
-        <v>16.21</v>
+        <v>10.36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2">
-        <v>198530</v>
+        <v>357854</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E5" s="2">
-        <v>34541.9</v>
+        <v>238.25</v>
       </c>
       <c r="F5" s="2">
-        <v>10.36</v>
+        <v>20.45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2">
-        <v>357854</v>
+        <v>143398</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E6" s="2">
-        <v>238.25</v>
+        <v>492.59</v>
       </c>
       <c r="F6" s="2">
-        <v>20.45</v>
+        <v>23.57</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2">
-        <v>143398</v>
+        <v>341715</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E7" s="2">
-        <v>492.59</v>
+        <v>1374.137</v>
       </c>
       <c r="F7" s="2">
-        <v>23.57</v>
+        <v>15.41</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2">
-        <v>341715</v>
+        <v>623235</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E8" s="2">
-        <v>1374.137</v>
+        <v>471.33</v>
       </c>
       <c r="F8" s="2">
-        <v>15.41</v>
+        <v>23.69</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H8" s="2">
-        <v>623235</v>
+        <v>328632</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E9" s="2">
-        <v>471.33</v>
+        <v>288.96</v>
       </c>
       <c r="F9" s="2">
-        <v>23.69</v>
+        <v>9.742</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H9" s="2">
-        <v>328632</v>
+        <v>110383</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E10" s="2">
-        <v>288.96</v>
+        <v>925207</v>
       </c>
       <c r="F10" s="2">
-        <v>9.742</v>
+        <v>15.06</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H10" s="2">
-        <v>110383</v>
+        <v>546364</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E11" s="2">
-        <v>925207</v>
+        <v>300.098</v>
       </c>
       <c r="F11" s="2">
-        <v>15.06</v>
+        <v>22.53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H11" s="2">
-        <v>546364</v>
+        <v>265120</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2">
-        <v>300.098</v>
+        <v>378.32</v>
       </c>
       <c r="F12" s="2">
-        <v>22.53</v>
+        <v>65.16</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H12" s="2">
-        <v>265120</v>
+        <v>725242</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E13" s="2">
-        <v>378.32</v>
+        <v>778.839</v>
       </c>
       <c r="F13" s="2">
-        <v>65.16</v>
+        <v>35.77</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H13" s="2">
-        <v>725242</v>
+        <v>819614</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E14" s="2">
-        <v>778.839</v>
+        <v>227.45</v>
       </c>
       <c r="F14" s="2">
-        <v>35.77</v>
+        <v>65.16</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H14" s="2">
-        <v>819614</v>
+        <v>435815</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E15" s="2">
-        <v>227.45</v>
+        <v>244.54</v>
       </c>
       <c r="F15" s="2">
-        <v>65.16</v>
+        <v>30.77</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H15" s="2">
-        <v>435815</v>
+        <v>221264</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E16" s="2">
-        <v>244.54</v>
+        <v>1657.64</v>
       </c>
       <c r="F16" s="2">
-        <v>30.77</v>
+        <v>8.296</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H16" s="2">
-        <v>221264</v>
+        <v>404384</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E17" s="2">
-        <v>1657.64</v>
+        <v>23.241</v>
       </c>
       <c r="F17" s="2">
-        <v>8.296</v>
+        <v>99.32</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H17" s="2">
-        <v>404384</v>
+        <v>67877</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E18" s="2">
-        <v>23.241</v>
+        <v>1503.856</v>
       </c>
       <c r="F18" s="2">
-        <v>99.32</v>
+        <v>20.15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H18" s="2">
-        <v>67877</v>
+        <v>891081</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E19" s="2">
-        <v>1503.856</v>
+        <v>24.553</v>
       </c>
       <c r="F19" s="2">
-        <v>20.15</v>
+        <v>109.63</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H19" s="2">
-        <v>891081</v>
+        <v>79153</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E20" s="2">
-        <v>24.553</v>
+        <v>38.231</v>
       </c>
       <c r="F20" s="2">
-        <v>109.63</v>
+        <v>295.96</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H20" s="2">
-        <v>79153</v>
+        <v>332724</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E21" s="2">
-        <v>38.231</v>
+        <v>453.022</v>
       </c>
       <c r="F21" s="2">
-        <v>295.96</v>
+        <v>15.56</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H21" s="2">
-        <v>332724</v>
+        <v>207452</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E22" s="2">
-        <v>453.022</v>
+        <v>512.072</v>
       </c>
       <c r="F22" s="2">
-        <v>15.56</v>
+        <v>17.68</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H22" s="2">
-        <v>207452</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1">
-        <v>147</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="2">
-        <v>512.072</v>
-      </c>
-      <c r="F23" s="2">
-        <v>17.68</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="2">
         <v>266443</v>
       </c>
     </row>
@@ -3345,7 +3102,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3353,49 +3110,32 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>21</v>
+      </c>
+      <c r="E1" s="1">
+        <v>772050</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
-        <v>772050</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>156</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2">
         <v>153090</v>
       </c>
     </row>
@@ -3406,7 +3146,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3414,55 +3154,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>163</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
+++ b/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="138">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區通化段一小段07020000地號</t>
+  </si>
+  <si>
     <t>臺北市大安區通化段一小段07020001地號</t>
   </si>
   <si>
@@ -98,12 +101,12 @@
     <t>買賣</t>
   </si>
   <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
     <t>(超禍Ti■年)</t>
   </si>
   <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
     <t>land</t>
   </si>
   <si>
@@ -119,21 +122,21 @@
     <t>臺北市大安區通化段一小段01602000建號</t>
   </si>
   <si>
+    <t>臺北市大安區通化段一小段01643000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段一小段02793000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段一小段02869000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區萬芳段一小段02864000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>臺北市大安區通化段一小段01643000建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段一小段02793000建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段一小段02869000建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區萬芳段一小段02864000建號</t>
-  </si>
-  <si>
     <t>10000分之220</t>
   </si>
   <si>
@@ -264,6 +267,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>中信金(上市）</t>
   </si>
   <si>
     <t>花蓮二信</t>
@@ -787,7 +793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -845,66 +851,66 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>530</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2">
         <v>1755</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>0.0227</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.0454</v>
+        <v>12.031</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>3250</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -916,36 +922,89 @@
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2">
         <v>1755</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0227</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.0454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3250</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="2">
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
         <v>15</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P4" s="2">
         <v>0.0141</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q4" s="2">
         <v>45.825</v>
       </c>
     </row>
@@ -956,137 +1015,325 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
         <v>117.86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1141.68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>117.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
-        <v>131.78</v>
+        <v>1141.68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.022</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>25.11696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2">
-        <v>2026.24</v>
+        <v>131.78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>22</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>131.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
-        <v>2826.55</v>
+        <v>2026.24</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
+        <v>23</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0156</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>31.609344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2826.55</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2">
+        <v>24</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0117647058823529</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>33.2535294117647</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1104,19 +1351,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1">
         <v>1998</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>26</v>
@@ -1124,25 +1371,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1160,16 +1430,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1178,49 +1448,49 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>13146</v>
+        <v>3271631</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>877</v>
+        <v>13146</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>54</v>
@@ -1229,485 +1499,506 @@
         <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>6700</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>77</v>
+      <c r="G5" s="2">
+        <v>6700</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>3215548</v>
+      <c r="G6" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>4615025</v>
+        <v>3215548</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>586687</v>
+        <v>4615025</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>222923</v>
+        <v>586687</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>4923</v>
+        <v>222923</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>213061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>643</v>
+        <v>213061</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>1943517</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>2820784</v>
+        <v>1943517</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="2">
-        <v>39943.7</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>1177216</v>
+        <v>2820784</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F17" s="2">
+        <v>39943.7</v>
+      </c>
       <c r="G17" s="2">
-        <v>1979895</v>
+        <v>1177216</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>678881</v>
+        <v>1979895</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="2">
-        <v>21938.69</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>645436</v>
+        <v>678881</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2">
-        <v>22101.49</v>
+        <v>21938.69</v>
       </c>
       <c r="G20" s="2">
-        <v>864577</v>
+        <v>645436</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" s="2">
-        <v>28058.95</v>
+        <v>22101.49</v>
       </c>
       <c r="G21" s="2">
-        <v>859377</v>
+        <v>864577</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F22" s="2">
+        <v>28058.95</v>
+      </c>
       <c r="G22" s="2">
-        <v>5173835</v>
+        <v>859377</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>5024333</v>
+        <v>5173835</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>3600000</v>
+        <v>5024333</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2379.21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>93294</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2379.21</v>
+      </c>
+      <c r="G26" s="2">
+        <v>93294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
         <v>65015</v>
       </c>
     </row>
@@ -1718,7 +2009,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1732,13 +2023,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1767,749 +2058,793 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
-        <v>20</v>
+        <v>14286</v>
       </c>
       <c r="E2" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
-        <v>2000</v>
+        <v>142860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2">
         <v>1755</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
         <v>20</v>
       </c>
-      <c r="D3" s="2">
-        <v>900000</v>
-      </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2">
-        <v>9000000</v>
+        <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2">
         <v>1755</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2">
-        <v>8147</v>
+        <v>900000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2">
-        <v>81470</v>
+        <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2">
         <v>1755</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>3147</v>
+        <v>8147</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2">
-        <v>31470</v>
+        <v>81470</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2">
         <v>1755</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
-        <v>11064</v>
+        <v>3147</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2">
-        <v>110640</v>
+        <v>31470</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2">
         <v>1755</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>2218</v>
+        <v>11064</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2">
-        <v>22180</v>
+        <v>110640</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2">
         <v>1755</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
-        <v>2316</v>
+        <v>2218</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2">
-        <v>23160</v>
+        <v>22180</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2">
         <v>1755</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
-        <v>6727</v>
+        <v>2316</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2">
-        <v>67270</v>
+        <v>23160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" s="2">
         <v>1755</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>8738</v>
+        <v>6727</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2">
-        <v>87380</v>
+        <v>67270</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10" s="2">
         <v>1755</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N10" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>10747</v>
+        <v>8738</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2">
-        <v>107470</v>
+        <v>87380</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" s="2">
         <v>1755</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N11" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
-        <v>5779</v>
+        <v>10747</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2">
-        <v>57790</v>
+        <v>107470</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" s="2">
         <v>1755</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N12" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>5546</v>
+        <v>5779</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2">
-        <v>55460</v>
+        <v>57790</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13" s="2">
         <v>1755</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N13" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2">
-        <v>5875</v>
+        <v>5546</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" s="2">
-        <v>58750</v>
+        <v>55460</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" s="2">
         <v>1755</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N14" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2">
-        <v>5249</v>
+        <v>5875</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" s="2">
-        <v>52490</v>
+        <v>58750</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" s="2">
         <v>1755</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N15" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2">
-        <v>4532</v>
+        <v>5249</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>98</v>
+        <v>53</v>
+      </c>
+      <c r="G16" s="2">
+        <v>52490</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L16" s="2">
         <v>1755</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N16" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2">
-        <v>1643</v>
+        <v>4532</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="2">
-        <v>16430</v>
+        <v>53</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L17" s="2">
         <v>1755</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2">
-        <v>1054</v>
+        <v>1643</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G18" s="2">
-        <v>10540</v>
+        <v>16430</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L18" s="2">
         <v>1755</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1">
+        <v>95</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1054</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="2">
+        <v>10540</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="2">
+      <c r="K19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1755</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="2">
         <v>95</v>
       </c>
     </row>
@@ -2520,7 +2855,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2528,13 +2863,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1">
         <v>40000</v>
@@ -2543,7 +2878,7 @@
         <v>6.67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1">
         <v>266800</v>
@@ -2551,547 +2886,573 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="F2" s="2">
-        <v>8.32</v>
+        <v>6.67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2">
-        <v>166400</v>
+        <v>266800</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2">
-        <v>12247.4</v>
+        <v>20000</v>
       </c>
       <c r="F3" s="2">
-        <v>16.21</v>
+        <v>8.32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2">
-        <v>198530</v>
+        <v>166400</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4" s="2">
-        <v>34541.9</v>
+        <v>12247.4</v>
       </c>
       <c r="F4" s="2">
-        <v>10.36</v>
+        <v>16.21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2">
-        <v>357854</v>
+        <v>198530</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E5" s="2">
-        <v>238.25</v>
+        <v>34541.9</v>
       </c>
       <c r="F5" s="2">
-        <v>20.45</v>
+        <v>10.36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2">
-        <v>143398</v>
+        <v>357854</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2">
-        <v>492.59</v>
+        <v>238.25</v>
       </c>
       <c r="F6" s="2">
-        <v>23.57</v>
+        <v>20.45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" s="2">
-        <v>341715</v>
+        <v>143398</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2">
-        <v>1374.137</v>
+        <v>492.59</v>
       </c>
       <c r="F7" s="2">
-        <v>15.41</v>
+        <v>23.57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" s="2">
-        <v>623235</v>
+        <v>341715</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2">
-        <v>471.33</v>
+        <v>1374.137</v>
       </c>
       <c r="F8" s="2">
-        <v>23.69</v>
+        <v>15.41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" s="2">
-        <v>328632</v>
+        <v>623235</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2">
-        <v>288.96</v>
+        <v>471.33</v>
       </c>
       <c r="F9" s="2">
-        <v>9.742</v>
+        <v>23.69</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H9" s="2">
-        <v>110383</v>
+        <v>328632</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2">
-        <v>925207</v>
+        <v>288.96</v>
       </c>
       <c r="F10" s="2">
-        <v>15.06</v>
+        <v>9.742</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" s="2">
-        <v>546364</v>
+        <v>110383</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E11" s="2">
-        <v>300.098</v>
+        <v>925207</v>
       </c>
       <c r="F11" s="2">
-        <v>22.53</v>
+        <v>15.06</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" s="2">
-        <v>265120</v>
+        <v>546364</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12" s="2">
-        <v>378.32</v>
+        <v>300.098</v>
       </c>
       <c r="F12" s="2">
-        <v>65.16</v>
+        <v>22.53</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" s="2">
-        <v>725242</v>
+        <v>265120</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2">
-        <v>778.839</v>
+        <v>378.32</v>
       </c>
       <c r="F13" s="2">
-        <v>35.77</v>
+        <v>65.16</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="2">
-        <v>819614</v>
+        <v>725242</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2">
-        <v>227.45</v>
+        <v>778.839</v>
       </c>
       <c r="F14" s="2">
-        <v>65.16</v>
+        <v>35.77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="2">
-        <v>435815</v>
+        <v>819614</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E15" s="2">
-        <v>244.54</v>
+        <v>227.45</v>
       </c>
       <c r="F15" s="2">
-        <v>30.77</v>
+        <v>65.16</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" s="2">
-        <v>221264</v>
+        <v>435815</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E16" s="2">
-        <v>1657.64</v>
+        <v>244.54</v>
       </c>
       <c r="F16" s="2">
-        <v>8.296</v>
+        <v>30.77</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" s="2">
-        <v>404384</v>
+        <v>221264</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E17" s="2">
-        <v>23.241</v>
+        <v>1657.64</v>
       </c>
       <c r="F17" s="2">
-        <v>99.32</v>
+        <v>8.296</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" s="2">
-        <v>67877</v>
+        <v>404384</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E18" s="2">
-        <v>1503.856</v>
+        <v>23.241</v>
       </c>
       <c r="F18" s="2">
-        <v>20.15</v>
+        <v>99.32</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18" s="2">
-        <v>891081</v>
+        <v>67877</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2">
-        <v>24.553</v>
+        <v>1503.856</v>
       </c>
       <c r="F19" s="2">
-        <v>109.63</v>
+        <v>20.15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" s="2">
-        <v>79153</v>
+        <v>891081</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2">
-        <v>38.231</v>
+        <v>24.553</v>
       </c>
       <c r="F20" s="2">
-        <v>295.96</v>
+        <v>109.63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H20" s="2">
-        <v>332724</v>
+        <v>79153</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E21" s="2">
-        <v>453.022</v>
+        <v>38.231</v>
       </c>
       <c r="F21" s="2">
-        <v>15.56</v>
+        <v>295.96</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H21" s="2">
-        <v>207452</v>
+        <v>332724</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
+        <v>145</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="2">
+        <v>453.022</v>
+      </c>
+      <c r="F22" s="2">
+        <v>15.56</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="2">
+        <v>207452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
         <v>147</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="B23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="2">
         <v>512.072</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="2">
         <v>17.68</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="2">
         <v>266443</v>
       </c>
     </row>
@@ -3102,7 +3463,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3110,13 +3471,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1">
         <v>772050</v>
@@ -3124,18 +3485,35 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2">
+        <v>772050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>156</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2">
         <v>153090</v>
       </c>
     </row>
@@ -3146,7 +3524,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3154,24 +3532,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -3179,16 +3557,30 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
+        <v>162</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>163</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
+      <c r="C4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
+++ b/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="133">
   <si>
     <t>name</t>
   </si>
@@ -152,28 +152,13 @@
     <t>81年12月29日</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>豐田Camry</t>
   </si>
   <si>
     <t>92年07月28日</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
   </si>
   <si>
     <t>臺灣銀行木柵分行</t>
@@ -1343,38 +1328,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1383,7 +1389,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -1391,28 +1397,26 @@
       <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>50</v>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1755</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1430,13 +1434,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1448,16 +1452,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1469,16 +1473,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1490,16 +1494,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1511,16 +1515,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1532,37 +1536,37 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1574,16 +1578,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1595,16 +1599,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1616,16 +1620,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1637,16 +1641,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -1658,16 +1662,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1679,16 +1683,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1700,16 +1704,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1721,16 +1725,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -1742,16 +1746,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -1763,16 +1767,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -1786,16 +1790,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -1807,16 +1811,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -1828,16 +1832,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -1851,16 +1855,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -1874,16 +1878,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -1897,16 +1901,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -1918,16 +1922,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -1939,16 +1943,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -1960,16 +1964,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
+        <v>68</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -1983,16 +1987,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -2023,13 +2027,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2058,10 +2062,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2073,13 +2077,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>142860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -2097,15 +2101,15 @@
         <v>31</v>
       </c>
       <c r="N2" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -2117,13 +2121,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2">
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -2141,15 +2145,15 @@
         <v>31</v>
       </c>
       <c r="N3" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -2161,13 +2165,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2">
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
@@ -2185,15 +2189,15 @@
         <v>31</v>
       </c>
       <c r="N4" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -2205,13 +2209,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2">
         <v>81470</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>29</v>
@@ -2229,15 +2233,15 @@
         <v>31</v>
       </c>
       <c r="N5" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2249,13 +2253,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2">
         <v>31470</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
@@ -2273,15 +2277,15 @@
         <v>31</v>
       </c>
       <c r="N6" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -2293,13 +2297,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2">
         <v>110640</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>29</v>
@@ -2317,15 +2321,15 @@
         <v>31</v>
       </c>
       <c r="N7" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -2337,13 +2341,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2">
         <v>22180</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>29</v>
@@ -2361,15 +2365,15 @@
         <v>31</v>
       </c>
       <c r="N8" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
@@ -2381,13 +2385,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2">
         <v>23160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>29</v>
@@ -2405,15 +2409,15 @@
         <v>31</v>
       </c>
       <c r="N9" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -2425,13 +2429,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2">
         <v>67270</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>29</v>
@@ -2449,15 +2453,15 @@
         <v>31</v>
       </c>
       <c r="N10" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
@@ -2469,13 +2473,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2">
         <v>87380</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>29</v>
@@ -2493,15 +2497,15 @@
         <v>31</v>
       </c>
       <c r="N11" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
@@ -2513,13 +2517,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2">
         <v>107470</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>29</v>
@@ -2537,15 +2541,15 @@
         <v>31</v>
       </c>
       <c r="N12" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -2557,13 +2561,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2">
         <v>57790</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>29</v>
@@ -2581,15 +2585,15 @@
         <v>31</v>
       </c>
       <c r="N13" s="2">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -2601,13 +2605,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G14" s="2">
         <v>55460</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>29</v>
@@ -2625,15 +2629,15 @@
         <v>31</v>
       </c>
       <c r="N14" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
@@ -2645,13 +2649,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G15" s="2">
         <v>58750</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>29</v>
@@ -2669,15 +2673,15 @@
         <v>31</v>
       </c>
       <c r="N15" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
@@ -2689,13 +2693,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2">
         <v>52490</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>29</v>
@@ -2713,15 +2717,15 @@
         <v>31</v>
       </c>
       <c r="N16" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -2733,13 +2737,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>29</v>
@@ -2757,15 +2761,15 @@
         <v>31</v>
       </c>
       <c r="N17" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -2777,13 +2781,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G18" s="2">
         <v>16430</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>29</v>
@@ -2801,15 +2805,15 @@
         <v>31</v>
       </c>
       <c r="N18" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
@@ -2821,13 +2825,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G19" s="2">
         <v>10540</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>29</v>
@@ -2845,7 +2849,7 @@
         <v>31</v>
       </c>
       <c r="N19" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2863,13 +2867,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1">
         <v>40000</v>
@@ -2878,7 +2882,7 @@
         <v>6.67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1">
         <v>266800</v>
@@ -2886,16 +2890,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>40000</v>
@@ -2904,7 +2908,7 @@
         <v>6.67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2">
         <v>266800</v>
@@ -2912,16 +2916,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2">
         <v>20000</v>
@@ -2930,7 +2934,7 @@
         <v>8.32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2">
         <v>166400</v>
@@ -2938,16 +2942,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E4" s="2">
         <v>12247.4</v>
@@ -2956,7 +2960,7 @@
         <v>16.21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2">
         <v>198530</v>
@@ -2964,16 +2968,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2">
         <v>34541.9</v>
@@ -2982,7 +2986,7 @@
         <v>10.36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H5" s="2">
         <v>357854</v>
@@ -2990,16 +2994,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2">
         <v>238.25</v>
@@ -3008,7 +3012,7 @@
         <v>20.45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2">
         <v>143398</v>
@@ -3016,16 +3020,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2">
         <v>492.59</v>
@@ -3034,7 +3038,7 @@
         <v>23.57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2">
         <v>341715</v>
@@ -3042,16 +3046,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2">
         <v>1374.137</v>
@@ -3060,7 +3064,7 @@
         <v>15.41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2">
         <v>623235</v>
@@ -3068,16 +3072,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2">
         <v>471.33</v>
@@ -3086,7 +3090,7 @@
         <v>23.69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2">
         <v>328632</v>
@@ -3094,16 +3098,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2">
         <v>288.96</v>
@@ -3112,7 +3116,7 @@
         <v>9.742</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H10" s="2">
         <v>110383</v>
@@ -3120,16 +3124,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E11" s="2">
         <v>925207</v>
@@ -3138,7 +3142,7 @@
         <v>15.06</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H11" s="2">
         <v>546364</v>
@@ -3146,16 +3150,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2">
         <v>300.098</v>
@@ -3164,7 +3168,7 @@
         <v>22.53</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H12" s="2">
         <v>265120</v>
@@ -3172,16 +3176,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2">
         <v>378.32</v>
@@ -3190,7 +3194,7 @@
         <v>65.16</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H13" s="2">
         <v>725242</v>
@@ -3198,16 +3202,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E14" s="2">
         <v>778.839</v>
@@ -3216,7 +3220,7 @@
         <v>35.77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H14" s="2">
         <v>819614</v>
@@ -3224,16 +3228,16 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E15" s="2">
         <v>227.45</v>
@@ -3242,7 +3246,7 @@
         <v>65.16</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H15" s="2">
         <v>435815</v>
@@ -3250,16 +3254,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E16" s="2">
         <v>244.54</v>
@@ -3268,7 +3272,7 @@
         <v>30.77</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2">
         <v>221264</v>
@@ -3276,16 +3280,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E17" s="2">
         <v>1657.64</v>
@@ -3294,7 +3298,7 @@
         <v>8.296</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2">
         <v>404384</v>
@@ -3302,16 +3306,16 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E18" s="2">
         <v>23.241</v>
@@ -3320,7 +3324,7 @@
         <v>99.32</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H18" s="2">
         <v>67877</v>
@@ -3328,16 +3332,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E19" s="2">
         <v>1503.856</v>
@@ -3346,7 +3350,7 @@
         <v>20.15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2">
         <v>891081</v>
@@ -3354,16 +3358,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E20" s="2">
         <v>24.553</v>
@@ -3372,7 +3376,7 @@
         <v>109.63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H20" s="2">
         <v>79153</v>
@@ -3380,16 +3384,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E21" s="2">
         <v>38.231</v>
@@ -3398,7 +3402,7 @@
         <v>295.96</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H21" s="2">
         <v>332724</v>
@@ -3406,16 +3410,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E22" s="2">
         <v>453.022</v>
@@ -3424,7 +3428,7 @@
         <v>15.56</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H22" s="2">
         <v>207452</v>
@@ -3432,16 +3436,16 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="E23" s="2">
         <v>512.072</v>
@@ -3450,7 +3454,7 @@
         <v>17.68</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H23" s="2">
         <v>266443</v>
@@ -3471,7 +3475,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -3485,10 +3489,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3502,10 +3506,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -3532,10 +3536,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
@@ -3543,13 +3547,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -3557,13 +3561,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -3571,13 +3575,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
+++ b/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="135">
   <si>
     <t>name</t>
   </si>
@@ -152,6 +152,9 @@
     <t>81年12月29日</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -159,6 +162,9 @@
   </si>
   <si>
     <t>92年07月28日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行木柵分行</t>
@@ -1082,7 +1088,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>29</v>
@@ -1135,7 +1141,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -1188,7 +1194,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -1241,7 +1247,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>29</v>
@@ -1294,7 +1300,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>29</v>
@@ -1339,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1380,7 +1386,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1389,7 +1395,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -1398,7 +1404,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1434,13 +1440,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1455,13 +1461,13 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1476,13 +1482,13 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1497,13 +1503,13 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1518,13 +1524,13 @@
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1539,20 +1545,20 @@
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1560,13 +1566,13 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1581,13 +1587,13 @@
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1602,13 +1608,13 @@
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1623,13 +1629,13 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1644,13 +1650,13 @@
         <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -1665,13 +1671,13 @@
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1686,13 +1692,13 @@
         <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1707,13 +1713,13 @@
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1728,13 +1734,13 @@
         <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -1749,13 +1755,13 @@
         <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -1770,13 +1776,13 @@
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -1793,13 +1799,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -1814,13 +1820,13 @@
         <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -1835,13 +1841,13 @@
         <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
@@ -1858,13 +1864,13 @@
         <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -1881,13 +1887,13 @@
         <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -1904,13 +1910,13 @@
         <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -1925,13 +1931,13 @@
         <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
@@ -1946,13 +1952,13 @@
         <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -1967,13 +1973,13 @@
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
@@ -1990,13 +1996,13 @@
         <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
@@ -2027,13 +2033,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2065,7 +2071,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2077,13 +2083,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2">
         <v>142860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -2109,7 +2115,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -2121,13 +2127,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2">
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -2153,7 +2159,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -2165,13 +2171,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2">
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
@@ -2197,7 +2203,7 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -2209,13 +2215,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2">
         <v>81470</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>29</v>
@@ -2241,7 +2247,7 @@
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2253,13 +2259,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2">
         <v>31470</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
@@ -2285,7 +2291,7 @@
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -2297,13 +2303,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2">
         <v>110640</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>29</v>
@@ -2329,7 +2335,7 @@
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -2341,13 +2347,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2">
         <v>22180</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>29</v>
@@ -2373,7 +2379,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
@@ -2385,13 +2391,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2">
         <v>23160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>29</v>
@@ -2417,7 +2423,7 @@
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -2429,13 +2435,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2">
         <v>67270</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>29</v>
@@ -2461,7 +2467,7 @@
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
@@ -2473,13 +2479,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2">
         <v>87380</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>29</v>
@@ -2505,7 +2511,7 @@
         <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
@@ -2517,13 +2523,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2">
         <v>107470</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>29</v>
@@ -2549,7 +2555,7 @@
         <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -2561,13 +2567,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2">
         <v>57790</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>29</v>
@@ -2593,7 +2599,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -2605,13 +2611,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2">
         <v>55460</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>29</v>
@@ -2637,7 +2643,7 @@
         <v>88</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
@@ -2649,13 +2655,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G15" s="2">
         <v>58750</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>29</v>
@@ -2681,7 +2687,7 @@
         <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
@@ -2693,13 +2699,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G16" s="2">
         <v>52490</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>29</v>
@@ -2725,7 +2731,7 @@
         <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -2737,13 +2743,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>29</v>
@@ -2769,7 +2775,7 @@
         <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -2781,13 +2787,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="2">
         <v>16430</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>29</v>
@@ -2813,7 +2819,7 @@
         <v>92</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
@@ -2825,13 +2831,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G19" s="2">
         <v>10540</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>29</v>
@@ -2867,13 +2873,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1">
         <v>40000</v>
@@ -2882,7 +2888,7 @@
         <v>6.67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1">
         <v>266800</v>
@@ -2893,13 +2899,13 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>40000</v>
@@ -2908,7 +2914,7 @@
         <v>6.67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2">
         <v>266800</v>
@@ -2919,13 +2925,13 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2">
         <v>20000</v>
@@ -2934,7 +2940,7 @@
         <v>8.32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2">
         <v>166400</v>
@@ -2945,13 +2951,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2">
         <v>12247.4</v>
@@ -2960,7 +2966,7 @@
         <v>16.21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2">
         <v>198530</v>
@@ -2971,13 +2977,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="2">
         <v>34541.9</v>
@@ -2986,7 +2992,7 @@
         <v>10.36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2">
         <v>357854</v>
@@ -2997,13 +3003,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2">
         <v>238.25</v>
@@ -3012,7 +3018,7 @@
         <v>20.45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2">
         <v>143398</v>
@@ -3023,13 +3029,13 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2">
         <v>492.59</v>
@@ -3038,7 +3044,7 @@
         <v>23.57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2">
         <v>341715</v>
@@ -3049,13 +3055,13 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2">
         <v>1374.137</v>
@@ -3064,7 +3070,7 @@
         <v>15.41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2">
         <v>623235</v>
@@ -3075,13 +3081,13 @@
         <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E9" s="2">
         <v>471.33</v>
@@ -3090,7 +3096,7 @@
         <v>23.69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H9" s="2">
         <v>328632</v>
@@ -3101,13 +3107,13 @@
         <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E10" s="2">
         <v>288.96</v>
@@ -3116,7 +3122,7 @@
         <v>9.742</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H10" s="2">
         <v>110383</v>
@@ -3127,13 +3133,13 @@
         <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E11" s="2">
         <v>925207</v>
@@ -3142,7 +3148,7 @@
         <v>15.06</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="2">
         <v>546364</v>
@@ -3153,13 +3159,13 @@
         <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E12" s="2">
         <v>300.098</v>
@@ -3168,7 +3174,7 @@
         <v>22.53</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H12" s="2">
         <v>265120</v>
@@ -3179,13 +3185,13 @@
         <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E13" s="2">
         <v>378.32</v>
@@ -3194,7 +3200,7 @@
         <v>65.16</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2">
         <v>725242</v>
@@ -3205,13 +3211,13 @@
         <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E14" s="2">
         <v>778.839</v>
@@ -3220,7 +3226,7 @@
         <v>35.77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2">
         <v>819614</v>
@@ -3231,13 +3237,13 @@
         <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E15" s="2">
         <v>227.45</v>
@@ -3246,7 +3252,7 @@
         <v>65.16</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2">
         <v>435815</v>
@@ -3257,13 +3263,13 @@
         <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E16" s="2">
         <v>244.54</v>
@@ -3272,7 +3278,7 @@
         <v>30.77</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H16" s="2">
         <v>221264</v>
@@ -3283,13 +3289,13 @@
         <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E17" s="2">
         <v>1657.64</v>
@@ -3298,7 +3304,7 @@
         <v>8.296</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" s="2">
         <v>404384</v>
@@ -3309,13 +3315,13 @@
         <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E18" s="2">
         <v>23.241</v>
@@ -3324,7 +3330,7 @@
         <v>99.32</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H18" s="2">
         <v>67877</v>
@@ -3335,13 +3341,13 @@
         <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E19" s="2">
         <v>1503.856</v>
@@ -3350,7 +3356,7 @@
         <v>20.15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H19" s="2">
         <v>891081</v>
@@ -3361,13 +3367,13 @@
         <v>140</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E20" s="2">
         <v>24.553</v>
@@ -3376,7 +3382,7 @@
         <v>109.63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H20" s="2">
         <v>79153</v>
@@ -3387,13 +3393,13 @@
         <v>141</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E21" s="2">
         <v>38.231</v>
@@ -3402,7 +3408,7 @@
         <v>295.96</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2">
         <v>332724</v>
@@ -3413,13 +3419,13 @@
         <v>142</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E22" s="2">
         <v>453.022</v>
@@ -3428,7 +3434,7 @@
         <v>15.56</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H22" s="2">
         <v>207452</v>
@@ -3439,13 +3445,13 @@
         <v>144</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E23" s="2">
         <v>512.072</v>
@@ -3454,7 +3460,7 @@
         <v>17.68</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H23" s="2">
         <v>266443</v>
@@ -3475,7 +3481,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -3492,7 +3498,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3509,7 +3515,7 @@
         <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -3536,10 +3542,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
@@ -3550,10 +3556,10 @@
         <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -3564,10 +3570,10 @@
         <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -3578,10 +3584,10 @@
         <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
+++ b/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="137">
   <si>
     <t>name</t>
   </si>
@@ -167,78 +167,87 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行木柵分行</t>
   </si>
   <si>
+    <t>台北富邦商業銀行木柵分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行營業部</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行金控總部分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行文山分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司三張犁分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行城東分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行中山分行</t>
+  </si>
+  <si>
+    <t>花蓮第二信用合作社</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行大安分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行國際事務部</t>
+  </si>
+  <si>
+    <t>第一商業銀行世貿分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行木柵分行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行信義分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期縫存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北富邦商業銀行木柵分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行營業部</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行金控總部分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行文山分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司三張犁分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行城東分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行中山分行</t>
-  </si>
-  <si>
-    <t>花蓮第二信用合作社</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行大安分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行信義分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行國際事務部</t>
-  </si>
-  <si>
-    <t>第一商業銀行世貿分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行木柵分行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行信義分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期縫存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -248,16 +257,13 @@
     <t>澳幣</t>
   </si>
   <si>
-    <t>6190238</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中信金(上市）</t>
@@ -1432,13 +1438,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1449,567 +1455,1097 @@
         <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>3271631</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>3271631</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>13146</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>877</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>6700</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>6190238</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>3215548</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4615025</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2">
         <v>49</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>4615025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2">
+        <v>586687</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2">
         <v>50</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>586687</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>222923</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>4923</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>213061</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>643</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>1943517</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>2820784</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="2">
-        <v>39943.7</v>
-      </c>
-      <c r="G17" s="2">
         <v>1177216</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>1979895</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>678881</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="2">
-        <v>21938.69</v>
-      </c>
-      <c r="G20" s="2">
         <v>645436</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="2">
-        <v>22101.49</v>
-      </c>
-      <c r="G21" s="2">
         <v>864577</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2">
+        <v>859377</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="2">
         <v>64</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="2">
-        <v>28058.95</v>
-      </c>
-      <c r="G22" s="2">
-        <v>859377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5173835</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="2">
         <v>65</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>5173835</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5024333</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="2">
         <v>66</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>5024333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>3600000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2">
+        <v>93294</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="2">
         <v>68</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2379.21</v>
-      </c>
-      <c r="G26" s="2">
-        <v>93294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="F27" s="2">
         <v>65015</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1755</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="2">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2033,13 +2569,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2071,7 +2607,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2083,13 +2619,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2">
         <v>142860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -2115,7 +2651,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -2127,13 +2663,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2">
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -2159,7 +2695,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -2171,13 +2707,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2">
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
@@ -2203,7 +2739,7 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -2215,13 +2751,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2">
         <v>81470</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>29</v>
@@ -2247,7 +2783,7 @@
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2259,13 +2795,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2">
         <v>31470</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
@@ -2291,7 +2827,7 @@
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -2303,13 +2839,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G7" s="2">
         <v>110640</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>29</v>
@@ -2335,7 +2871,7 @@
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -2347,13 +2883,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G8" s="2">
         <v>22180</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>29</v>
@@ -2379,7 +2915,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
@@ -2391,13 +2927,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2">
         <v>23160</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>29</v>
@@ -2423,7 +2959,7 @@
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -2435,13 +2971,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G10" s="2">
         <v>67270</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>29</v>
@@ -2467,7 +3003,7 @@
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
@@ -2479,13 +3015,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G11" s="2">
         <v>87380</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>29</v>
@@ -2511,7 +3047,7 @@
         <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
@@ -2523,13 +3059,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G12" s="2">
         <v>107470</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>29</v>
@@ -2555,7 +3091,7 @@
         <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -2567,13 +3103,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G13" s="2">
         <v>57790</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>29</v>
@@ -2599,7 +3135,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -2611,13 +3147,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G14" s="2">
         <v>55460</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>29</v>
@@ -2643,7 +3179,7 @@
         <v>88</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
@@ -2655,13 +3191,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G15" s="2">
         <v>58750</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>29</v>
@@ -2687,7 +3223,7 @@
         <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
@@ -2699,13 +3235,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G16" s="2">
         <v>52490</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>29</v>
@@ -2731,7 +3267,7 @@
         <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -2743,13 +3279,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>29</v>
@@ -2775,7 +3311,7 @@
         <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -2787,13 +3323,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G18" s="2">
         <v>16430</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>29</v>
@@ -2819,7 +3355,7 @@
         <v>92</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
@@ -2831,13 +3367,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G19" s="2">
         <v>10540</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>29</v>
@@ -2873,13 +3409,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1">
         <v>40000</v>
@@ -2888,7 +3424,7 @@
         <v>6.67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1">
         <v>266800</v>
@@ -2899,13 +3435,13 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2">
         <v>40000</v>
@@ -2914,7 +3450,7 @@
         <v>6.67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2">
         <v>266800</v>
@@ -2925,13 +3461,13 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2">
         <v>20000</v>
@@ -2940,7 +3476,7 @@
         <v>8.32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2">
         <v>166400</v>
@@ -2951,13 +3487,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2">
         <v>12247.4</v>
@@ -2966,7 +3502,7 @@
         <v>16.21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H4" s="2">
         <v>198530</v>
@@ -2977,13 +3513,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E5" s="2">
         <v>34541.9</v>
@@ -2992,7 +3528,7 @@
         <v>10.36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2">
         <v>357854</v>
@@ -3003,13 +3539,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E6" s="2">
         <v>238.25</v>
@@ -3018,7 +3554,7 @@
         <v>20.45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H6" s="2">
         <v>143398</v>
@@ -3029,13 +3565,13 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E7" s="2">
         <v>492.59</v>
@@ -3044,7 +3580,7 @@
         <v>23.57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H7" s="2">
         <v>341715</v>
@@ -3055,13 +3591,13 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2">
         <v>1374.137</v>
@@ -3070,7 +3606,7 @@
         <v>15.41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H8" s="2">
         <v>623235</v>
@@ -3081,13 +3617,13 @@
         <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E9" s="2">
         <v>471.33</v>
@@ -3096,7 +3632,7 @@
         <v>23.69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H9" s="2">
         <v>328632</v>
@@ -3107,13 +3643,13 @@
         <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2">
         <v>288.96</v>
@@ -3122,7 +3658,7 @@
         <v>9.742</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H10" s="2">
         <v>110383</v>
@@ -3133,13 +3669,13 @@
         <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E11" s="2">
         <v>925207</v>
@@ -3148,7 +3684,7 @@
         <v>15.06</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H11" s="2">
         <v>546364</v>
@@ -3159,13 +3695,13 @@
         <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2">
         <v>300.098</v>
@@ -3174,7 +3710,7 @@
         <v>22.53</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H12" s="2">
         <v>265120</v>
@@ -3185,13 +3721,13 @@
         <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E13" s="2">
         <v>378.32</v>
@@ -3200,7 +3736,7 @@
         <v>65.16</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H13" s="2">
         <v>725242</v>
@@ -3211,13 +3747,13 @@
         <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E14" s="2">
         <v>778.839</v>
@@ -3226,7 +3762,7 @@
         <v>35.77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H14" s="2">
         <v>819614</v>
@@ -3237,13 +3773,13 @@
         <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E15" s="2">
         <v>227.45</v>
@@ -3252,7 +3788,7 @@
         <v>65.16</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H15" s="2">
         <v>435815</v>
@@ -3263,13 +3799,13 @@
         <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E16" s="2">
         <v>244.54</v>
@@ -3278,7 +3814,7 @@
         <v>30.77</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H16" s="2">
         <v>221264</v>
@@ -3289,13 +3825,13 @@
         <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E17" s="2">
         <v>1657.64</v>
@@ -3304,7 +3840,7 @@
         <v>8.296</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H17" s="2">
         <v>404384</v>
@@ -3315,13 +3851,13 @@
         <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E18" s="2">
         <v>23.241</v>
@@ -3330,7 +3866,7 @@
         <v>99.32</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H18" s="2">
         <v>67877</v>
@@ -3341,13 +3877,13 @@
         <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E19" s="2">
         <v>1503.856</v>
@@ -3356,7 +3892,7 @@
         <v>20.15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H19" s="2">
         <v>891081</v>
@@ -3367,13 +3903,13 @@
         <v>140</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E20" s="2">
         <v>24.553</v>
@@ -3382,7 +3918,7 @@
         <v>109.63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H20" s="2">
         <v>79153</v>
@@ -3393,13 +3929,13 @@
         <v>141</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E21" s="2">
         <v>38.231</v>
@@ -3408,7 +3944,7 @@
         <v>295.96</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H21" s="2">
         <v>332724</v>
@@ -3419,13 +3955,13 @@
         <v>142</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E22" s="2">
         <v>453.022</v>
@@ -3434,7 +3970,7 @@
         <v>15.56</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H22" s="2">
         <v>207452</v>
@@ -3445,13 +3981,13 @@
         <v>144</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E23" s="2">
         <v>512.072</v>
@@ -3460,7 +3996,7 @@
         <v>17.68</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H23" s="2">
         <v>266443</v>
@@ -3481,7 +4017,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -3498,7 +4034,7 @@
         <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3515,7 +4051,7 @@
         <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -3542,10 +4078,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
@@ -3556,10 +4092,10 @@
         <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -3570,10 +4106,10 @@
         <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -3584,10 +4120,10 @@
         <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
+++ b/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="140">
   <si>
     <t>name</t>
   </si>
@@ -104,7 +104,7 @@
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>(超禍Ti■年)</t>
+    <t>(超禍Ti年)</t>
   </si>
   <si>
     <t>land</t>
@@ -326,75 +326,78 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>臺壽保阿波羅</t>
   </si>
   <si>
+    <t>富邦精銳中小</t>
+  </si>
+  <si>
+    <t>保德信第一基金</t>
+  </si>
+  <si>
+    <t>德盛安聯中國策略增長基金</t>
+  </si>
+  <si>
+    <t>富達韓國</t>
+  </si>
+  <si>
+    <t>坦伯頓開發中國家</t>
+  </si>
+  <si>
+    <t>坦伯頓世界基金</t>
+  </si>
+  <si>
+    <t>貝萊德世界能源</t>
+  </si>
+  <si>
+    <t>富達歐洲歐元</t>
+  </si>
+  <si>
+    <t>坦柏頓全球債券</t>
+  </si>
+  <si>
+    <t>坦柏頓全球東歐基金</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業基金</t>
+  </si>
+  <si>
+    <t>GF太平洋科技基金</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業</t>
+  </si>
+  <si>
+    <t>富達東協</t>
+  </si>
+  <si>
+    <t>富達亞洲高收益基金(配現）</t>
+  </si>
+  <si>
+    <t>霸菱東歐</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓全球投資糸列全球</t>
+  </si>
+  <si>
+    <t>法巴L1全球原物料股票基金</t>
+  </si>
+  <si>
+    <t>天達環球能源基金</t>
+  </si>
+  <si>
+    <t>世界基金</t>
+  </si>
+  <si>
+    <t>全球基金</t>
+  </si>
+  <si>
     <t>慶豐商業銀行</t>
   </si>
   <si>
-    <t>富邦精銳中小</t>
-  </si>
-  <si>
-    <t>保德信第一基金</t>
-  </si>
-  <si>
-    <t>德盛安聯中國策略增長基金</t>
-  </si>
-  <si>
-    <t>富達韓國</t>
-  </si>
-  <si>
-    <t>坦伯頓開發中國家</t>
-  </si>
-  <si>
-    <t>坦伯頓世界基金</t>
-  </si>
-  <si>
-    <t>貝萊德世界能源</t>
-  </si>
-  <si>
-    <t>富達歐洲歐元</t>
-  </si>
-  <si>
-    <t>坦柏頓全球債券</t>
-  </si>
-  <si>
-    <t>坦柏頓全球東歐基金</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業基金</t>
-  </si>
-  <si>
-    <t>GF太平洋科技基金</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業</t>
-  </si>
-  <si>
-    <t>富達東協</t>
-  </si>
-  <si>
-    <t>富達亞洲高收益基金(配現）</t>
-  </si>
-  <si>
-    <t>霸菱東歐</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓全球投資糸列全球</t>
-  </si>
-  <si>
-    <t>法巴L1全球原物料股票基金</t>
-  </si>
-  <si>
-    <t>天達環球能源基金</t>
-  </si>
-  <si>
-    <t>世界基金</t>
-  </si>
-  <si>
-    <t>全球基金</t>
-  </si>
-  <si>
     <t>保德信投信公司</t>
   </si>
   <si>
@@ -410,10 +413,16 @@
     <t>安泰商業銀行</t>
   </si>
   <si>
+    <t>fund</t>
+  </si>
+  <si>
     <t>美林7年澳幣恆牛指數到期最低保障帳總報酬連動債券</t>
   </si>
   <si>
     <t>USB5年臺幣7檔亞洲REITs類股連動債券</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>中華郵政</t>
@@ -3401,47 +3410,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1">
-        <v>40000</v>
-      </c>
-      <c r="F1" s="1">
-        <v>6.67</v>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="1">
-        <v>266800</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2">
         <v>40000</v>
@@ -3455,8 +3485,29 @@
       <c r="H2" s="2">
         <v>266800</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>123</v>
       </c>
@@ -3481,8 +3532,29 @@
       <c r="H3" s="2">
         <v>166400</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>124</v>
       </c>
@@ -3493,7 +3565,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4" s="2">
         <v>12247.4</v>
@@ -3507,8 +3579,29 @@
       <c r="H4" s="2">
         <v>198530</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>125</v>
       </c>
@@ -3519,7 +3612,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5" s="2">
         <v>34541.9</v>
@@ -3533,8 +3626,29 @@
       <c r="H5" s="2">
         <v>357854</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>126</v>
       </c>
@@ -3545,7 +3659,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2">
         <v>238.25</v>
@@ -3559,8 +3673,29 @@
       <c r="H6" s="2">
         <v>143398</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>127</v>
       </c>
@@ -3571,7 +3706,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2">
         <v>492.59</v>
@@ -3585,8 +3720,29 @@
       <c r="H7" s="2">
         <v>341715</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>128</v>
       </c>
@@ -3597,7 +3753,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2">
         <v>1374.137</v>
@@ -3611,8 +3767,29 @@
       <c r="H8" s="2">
         <v>623235</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>129</v>
       </c>
@@ -3623,7 +3800,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2">
         <v>471.33</v>
@@ -3637,8 +3814,29 @@
       <c r="H9" s="2">
         <v>328632</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>130</v>
       </c>
@@ -3649,7 +3847,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2">
         <v>288.96</v>
@@ -3663,8 +3861,29 @@
       <c r="H10" s="2">
         <v>110383</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>131</v>
       </c>
@@ -3675,7 +3894,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E11" s="2">
         <v>925207</v>
@@ -3689,8 +3908,29 @@
       <c r="H11" s="2">
         <v>546364</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>132</v>
       </c>
@@ -3701,7 +3941,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12" s="2">
         <v>300.098</v>
@@ -3715,8 +3955,29 @@
       <c r="H12" s="2">
         <v>265120</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>133</v>
       </c>
@@ -3727,7 +3988,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2">
         <v>378.32</v>
@@ -3741,8 +4002,29 @@
       <c r="H13" s="2">
         <v>725242</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>134</v>
       </c>
@@ -3753,7 +4035,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2">
         <v>778.839</v>
@@ -3767,8 +4049,29 @@
       <c r="H14" s="2">
         <v>819614</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>135</v>
       </c>
@@ -3779,7 +4082,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E15" s="2">
         <v>227.45</v>
@@ -3793,8 +4096,29 @@
       <c r="H15" s="2">
         <v>435815</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>136</v>
       </c>
@@ -3805,7 +4129,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E16" s="2">
         <v>244.54</v>
@@ -3819,8 +4143,29 @@
       <c r="H16" s="2">
         <v>221264</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>137</v>
       </c>
@@ -3831,7 +4176,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E17" s="2">
         <v>1657.64</v>
@@ -3845,8 +4190,29 @@
       <c r="H17" s="2">
         <v>404384</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>138</v>
       </c>
@@ -3857,7 +4223,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E18" s="2">
         <v>23.241</v>
@@ -3871,8 +4237,29 @@
       <c r="H18" s="2">
         <v>67877</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>139</v>
       </c>
@@ -3883,7 +4270,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2">
         <v>1503.856</v>
@@ -3897,8 +4284,29 @@
       <c r="H19" s="2">
         <v>891081</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>140</v>
       </c>
@@ -3909,7 +4317,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2">
         <v>24.553</v>
@@ -3923,8 +4331,29 @@
       <c r="H20" s="2">
         <v>79153</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>141</v>
       </c>
@@ -3935,7 +4364,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E21" s="2">
         <v>38.231</v>
@@ -3949,8 +4378,29 @@
       <c r="H21" s="2">
         <v>332724</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>142</v>
       </c>
@@ -3961,7 +4411,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E22" s="2">
         <v>453.022</v>
@@ -3975,8 +4425,29 @@
       <c r="H22" s="2">
         <v>207452</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>144</v>
       </c>
@@ -3987,7 +4458,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E23" s="2">
         <v>512.072</v>
@@ -4000,6 +4471,27 @@
       </c>
       <c r="H23" s="2">
         <v>266443</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1755</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="2">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4009,32 +4501,53 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1">
-        <v>772050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -4045,13 +4558,34 @@
       <c r="E2" s="2">
         <v>772050</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1755</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -4061,6 +4595,27 @@
       </c>
       <c r="E3" s="2">
         <v>153090</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1755</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4078,10 +4633,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
@@ -4092,10 +4647,10 @@
         <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -4106,10 +4661,10 @@
         <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -4120,10 +4675,10 @@
         <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
+++ b/legislator/property/output/normal/曾巨威_2012-04-16_財產申報表_tmp8b7f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="142">
   <si>
     <t>name</t>
   </si>
@@ -422,25 +422,31 @@
     <t>USB5年臺幣7檔亞洲REITs類股連動債券</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>中華郵政</t>
   </si>
   <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
     <t>六六金順</t>
   </si>
   <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
     <t>鑫添財萬能終身險</t>
   </si>
   <si>
     <t>利率變動型年金(甲型）</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -4625,38 +4631,80 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1755</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>159</v>
       </c>
@@ -4664,13 +4712,34 @@
         <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1755</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>160</v>
       </c>
@@ -4678,10 +4747,31 @@
         <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1755</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
